--- a/data/car_financing.xlsx
+++ b/data/car_financing.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelgalarnyk/Desktop/PythonForDataVisualization/Exercise_Files/5 Matplotlib/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19420" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -186,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -221,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -432,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -554,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -583,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -612,7 +604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -641,7 +633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -670,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -699,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -728,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -757,7 +749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -786,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -815,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -844,7 +836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -873,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -902,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -931,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -960,7 +952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -989,7 +981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1018,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1047,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1076,7 +1068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1105,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1134,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1163,7 +1155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1192,7 +1184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1221,7 +1213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1250,7 +1242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1279,7 +1271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1308,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1337,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1366,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1395,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1424,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1453,7 +1445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1482,7 +1474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1508,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1537,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1566,7 +1558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1595,7 +1587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1624,7 +1616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1653,7 +1645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1682,7 +1674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1711,7 +1703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1740,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1769,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1798,7 +1790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1827,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1856,7 +1848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1885,7 +1877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1914,7 +1906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1972,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2001,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2030,7 +2022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2059,7 +2051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2088,7 +2080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2117,7 +2109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2146,7 +2138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2175,7 +2167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2204,7 +2196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2233,7 +2225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2262,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2291,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2320,7 +2312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5</v>
       </c>
@@ -2349,7 +2341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>6</v>
       </c>
@@ -2378,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>7</v>
       </c>
@@ -2407,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>8</v>
       </c>
@@ -2436,7 +2428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>9</v>
       </c>
@@ -2465,7 +2457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>10</v>
       </c>
@@ -2494,7 +2486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>11</v>
       </c>
@@ -2523,7 +2515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>12</v>
       </c>
@@ -2552,7 +2544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>13</v>
       </c>
@@ -2581,7 +2573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>14</v>
       </c>
@@ -2610,7 +2602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>15</v>
       </c>
@@ -2639,7 +2631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -2668,7 +2660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>17</v>
       </c>
@@ -2697,7 +2689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>18</v>
       </c>
@@ -2726,7 +2718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>19</v>
       </c>
@@ -2755,7 +2747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>20</v>
       </c>
@@ -2784,7 +2776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>21</v>
       </c>
@@ -2813,7 +2805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>22</v>
       </c>
@@ -2842,7 +2834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>23</v>
       </c>
@@ -2871,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>24</v>
       </c>
@@ -2900,7 +2892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>25</v>
       </c>
@@ -2929,7 +2921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>26</v>
       </c>
@@ -2958,7 +2950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>27</v>
       </c>
@@ -2987,7 +2979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>28</v>
       </c>
@@ -3016,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>29</v>
       </c>
@@ -3045,7 +3037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>30</v>
       </c>
@@ -3074,7 +3066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>31</v>
       </c>
@@ -3103,7 +3095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>32</v>
       </c>
@@ -3132,7 +3124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>33</v>
       </c>
@@ -3161,7 +3153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>34</v>
       </c>
@@ -3190,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>35</v>
       </c>
@@ -3219,7 +3211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>36</v>
       </c>
@@ -3248,7 +3240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>37</v>
       </c>
@@ -3277,7 +3269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>38</v>
       </c>
@@ -3306,7 +3298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>39</v>
       </c>
@@ -3335,7 +3327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>40</v>
       </c>
@@ -3364,7 +3356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>41</v>
       </c>
@@ -3393,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>42</v>
       </c>
@@ -3422,7 +3414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>43</v>
       </c>
@@ -3451,7 +3443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>44</v>
       </c>
@@ -3480,7 +3472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>45</v>
       </c>
@@ -3509,7 +3501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>46</v>
       </c>
@@ -3538,7 +3530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>47</v>
       </c>
@@ -3567,7 +3559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>48</v>
       </c>
@@ -3596,7 +3588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>49</v>
       </c>
@@ -3625,7 +3617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>50</v>
       </c>
@@ -3654,7 +3646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>51</v>
       </c>
@@ -3683,7 +3675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>52</v>
       </c>
@@ -3712,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>53</v>
       </c>
@@ -3741,7 +3733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>54</v>
       </c>
@@ -3770,7 +3762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>55</v>
       </c>
@@ -3799,7 +3791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>56</v>
       </c>
@@ -3828,7 +3820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>57</v>
       </c>
@@ -3857,7 +3849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>58</v>
       </c>
@@ -3886,7 +3878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>59</v>
       </c>
@@ -3915,7 +3907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>60</v>
       </c>
@@ -3944,7 +3936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3973,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2</v>
       </c>
@@ -4002,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>3</v>
       </c>
@@ -4031,7 +4023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>4</v>
       </c>
@@ -4060,7 +4052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4089,7 +4081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>6</v>
       </c>
@@ -4118,7 +4110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>7</v>
       </c>
@@ -4147,7 +4139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>8</v>
       </c>
@@ -4176,7 +4168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>9</v>
       </c>
@@ -4205,7 +4197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>10</v>
       </c>
@@ -4234,7 +4226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>11</v>
       </c>
@@ -4263,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>12</v>
       </c>
@@ -4292,7 +4284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>13</v>
       </c>
@@ -4321,7 +4313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>14</v>
       </c>
@@ -4350,7 +4342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>15</v>
       </c>
@@ -4379,7 +4371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>16</v>
       </c>
@@ -4408,7 +4400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>17</v>
       </c>
@@ -4437,7 +4429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>18</v>
       </c>
@@ -4466,7 +4458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>19</v>
       </c>
@@ -4495,7 +4487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>20</v>
       </c>
@@ -4524,7 +4516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>21</v>
       </c>
@@ -4553,7 +4545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>22</v>
       </c>
@@ -4582,7 +4574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>23</v>
       </c>
@@ -4611,7 +4603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>24</v>
       </c>
@@ -4640,7 +4632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>25</v>
       </c>
@@ -4669,7 +4661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>26</v>
       </c>
@@ -4698,7 +4690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>27</v>
       </c>
@@ -4727,7 +4719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>28</v>
       </c>
@@ -4756,7 +4748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>29</v>
       </c>
@@ -4785,7 +4777,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>30</v>
       </c>
@@ -4814,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>31</v>
       </c>
@@ -4843,7 +4835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>32</v>
       </c>
@@ -4872,7 +4864,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>33</v>
       </c>
@@ -4901,7 +4893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>34</v>
       </c>
@@ -4930,7 +4922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>35</v>
       </c>
@@ -4959,7 +4951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>36</v>
       </c>
@@ -4988,7 +4980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5017,7 +5009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2</v>
       </c>
@@ -5046,7 +5038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>3</v>
       </c>
@@ -5075,7 +5067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>4</v>
       </c>
@@ -5104,7 +5096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>5</v>
       </c>
@@ -5133,7 +5125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>6</v>
       </c>
@@ -5162,7 +5154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>7</v>
       </c>
@@ -5191,7 +5183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>8</v>
       </c>
@@ -5220,7 +5212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>9</v>
       </c>
@@ -5249,7 +5241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>10</v>
       </c>
@@ -5278,7 +5270,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>11</v>
       </c>
@@ -5307,7 +5299,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>12</v>
       </c>
@@ -5336,7 +5328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>13</v>
       </c>
@@ -5365,7 +5357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5394,7 +5386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>15</v>
       </c>
@@ -5423,7 +5415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>16</v>
       </c>
@@ -5452,7 +5444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>17</v>
       </c>
@@ -5481,7 +5473,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>18</v>
       </c>
@@ -5510,7 +5502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>19</v>
       </c>
@@ -5539,7 +5531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>20</v>
       </c>
@@ -5568,7 +5560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>21</v>
       </c>
@@ -5597,7 +5589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>22</v>
       </c>
@@ -5626,7 +5618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>23</v>
       </c>
@@ -5655,7 +5647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>24</v>
       </c>
@@ -5684,7 +5676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>25</v>
       </c>
@@ -5713,7 +5705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>26</v>
       </c>
@@ -5742,7 +5734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>27</v>
       </c>
@@ -5771,7 +5763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>28</v>
       </c>
@@ -5800,7 +5792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>29</v>
       </c>
@@ -5829,7 +5821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>30</v>
       </c>
@@ -5858,7 +5850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>31</v>
       </c>
@@ -5887,7 +5879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>32</v>
       </c>
@@ -5916,7 +5908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>33</v>
       </c>
@@ -5945,7 +5937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>34</v>
       </c>
@@ -5974,7 +5966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>35</v>
       </c>
@@ -6003,7 +5995,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>36</v>
       </c>
@@ -6032,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>37</v>
       </c>
@@ -6061,7 +6053,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>38</v>
       </c>
@@ -6090,7 +6082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>39</v>
       </c>
@@ -6119,7 +6111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>40</v>
       </c>
@@ -6148,7 +6140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>41</v>
       </c>
@@ -6177,7 +6169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>42</v>
       </c>
@@ -6206,7 +6198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>43</v>
       </c>
@@ -6235,7 +6227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>44</v>
       </c>
@@ -6264,7 +6256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>45</v>
       </c>
@@ -6293,7 +6285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>46</v>
       </c>
@@ -6322,7 +6314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>47</v>
       </c>
@@ -6351,7 +6343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>48</v>
       </c>
@@ -6380,7 +6372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6409,7 +6401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2</v>
       </c>
@@ -6438,7 +6430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>3</v>
       </c>
@@ -6467,7 +6459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>4</v>
       </c>
@@ -6496,7 +6488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>5</v>
       </c>
@@ -6525,7 +6517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>6</v>
       </c>
@@ -6554,7 +6546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>7</v>
       </c>
@@ -6583,7 +6575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>8</v>
       </c>
@@ -6612,7 +6604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>9</v>
       </c>
@@ -6641,7 +6633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>10</v>
       </c>
@@ -6670,7 +6662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>11</v>
       </c>
@@ -6699,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>12</v>
       </c>
@@ -6728,7 +6720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>13</v>
       </c>
@@ -6757,7 +6749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6786,7 +6778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>15</v>
       </c>
@@ -6815,7 +6807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>16</v>
       </c>
@@ -6844,7 +6836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>17</v>
       </c>
@@ -6873,7 +6865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>18</v>
       </c>
@@ -6902,7 +6894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>19</v>
       </c>
@@ -6931,7 +6923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>20</v>
       </c>
@@ -6960,7 +6952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>21</v>
       </c>
@@ -6989,7 +6981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>22</v>
       </c>
@@ -7018,7 +7010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>23</v>
       </c>
@@ -7047,7 +7039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>24</v>
       </c>
@@ -7076,7 +7068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>25</v>
       </c>
@@ -7105,7 +7097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>26</v>
       </c>
@@ -7134,7 +7126,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>27</v>
       </c>
@@ -7163,7 +7155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>28</v>
       </c>
@@ -7192,7 +7184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>29</v>
       </c>
@@ -7221,7 +7213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>30</v>
       </c>
@@ -7250,7 +7242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>31</v>
       </c>
@@ -7279,7 +7271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>32</v>
       </c>
@@ -7308,7 +7300,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>33</v>
       </c>
@@ -7337,7 +7329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>34</v>
       </c>
@@ -7366,7 +7358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>35</v>
       </c>
@@ -7395,7 +7387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>36</v>
       </c>
@@ -7424,7 +7416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>37</v>
       </c>
@@ -7453,7 +7445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>38</v>
       </c>
@@ -7482,7 +7474,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>39</v>
       </c>
@@ -7511,7 +7503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>40</v>
       </c>
@@ -7540,7 +7532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>41</v>
       </c>
@@ -7569,7 +7561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>42</v>
       </c>
@@ -7598,7 +7590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>43</v>
       </c>
@@ -7627,7 +7619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>44</v>
       </c>
@@ -7656,7 +7648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>45</v>
       </c>
@@ -7685,7 +7677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>46</v>
       </c>
@@ -7714,7 +7706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>47</v>
       </c>
@@ -7743,7 +7735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>48</v>
       </c>
@@ -7772,7 +7764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>49</v>
       </c>
@@ -7801,7 +7793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>50</v>
       </c>
@@ -7830,7 +7822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>51</v>
       </c>
@@ -7859,7 +7851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>52</v>
       </c>
@@ -7888,7 +7880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>53</v>
       </c>
@@ -7917,7 +7909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>54</v>
       </c>
@@ -7946,7 +7938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>55</v>
       </c>
@@ -7975,7 +7967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>56</v>
       </c>
@@ -8004,7 +7996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>57</v>
       </c>
@@ -8033,7 +8025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>58</v>
       </c>
@@ -8062,7 +8054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>59</v>
       </c>
@@ -8091,7 +8083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>60</v>
       </c>
@@ -8120,7 +8112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1</v>
       </c>
@@ -8149,7 +8141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2</v>
       </c>
@@ -8178,7 +8170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>3</v>
       </c>
@@ -8207,7 +8199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>4</v>
       </c>
@@ -8236,7 +8228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>5</v>
       </c>
@@ -8265,7 +8257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>6</v>
       </c>
@@ -8294,7 +8286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>7</v>
       </c>
@@ -8323,7 +8315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>8</v>
       </c>
@@ -8352,7 +8344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>9</v>
       </c>
@@ -8381,7 +8373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>10</v>
       </c>
@@ -8410,7 +8402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>11</v>
       </c>
@@ -8439,7 +8431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>12</v>
       </c>
@@ -8468,7 +8460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>13</v>
       </c>
@@ -8497,7 +8489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>14</v>
       </c>
@@ -8526,7 +8518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>15</v>
       </c>
@@ -8555,7 +8547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>16</v>
       </c>
@@ -8584,7 +8576,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>17</v>
       </c>
@@ -8613,7 +8605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>18</v>
       </c>
@@ -8642,7 +8634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>19</v>
       </c>
@@ -8671,7 +8663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>20</v>
       </c>
@@ -8700,7 +8692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>21</v>
       </c>
@@ -8716,9 +8708,6 @@
       <c r="E286">
         <v>1240.68</v>
       </c>
-      <c r="F286">
-        <v>18973.91</v>
-      </c>
       <c r="G286">
         <v>36</v>
       </c>
@@ -8729,7 +8718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>22</v>
       </c>
@@ -8758,7 +8747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>23</v>
       </c>
@@ -8787,7 +8776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>24</v>
       </c>
@@ -8816,7 +8805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>25</v>
       </c>
@@ -8845,7 +8834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>26</v>
       </c>
@@ -8874,7 +8863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>27</v>
       </c>
@@ -8903,7 +8892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>28</v>
       </c>
@@ -8932,7 +8921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>29</v>
       </c>
@@ -8961,7 +8950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>30</v>
       </c>
@@ -8990,7 +8979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>31</v>
       </c>
@@ -9019,7 +9008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>32</v>
       </c>
@@ -9048,7 +9037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>33</v>
       </c>
@@ -9077,7 +9066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>34</v>
       </c>
@@ -9106,7 +9095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>35</v>
       </c>
@@ -9135,7 +9124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>36</v>
       </c>
@@ -9164,7 +9153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>1</v>
       </c>
@@ -9193,7 +9182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2</v>
       </c>
@@ -9222,7 +9211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>3</v>
       </c>
@@ -9251,7 +9240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>4</v>
       </c>
@@ -9280,7 +9269,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>5</v>
       </c>
@@ -9309,7 +9298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>6</v>
       </c>
@@ -9338,7 +9327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>7</v>
       </c>
@@ -9367,7 +9356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>8</v>
       </c>
@@ -9396,7 +9385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>9</v>
       </c>
@@ -9425,7 +9414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>10</v>
       </c>
@@ -9454,7 +9443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>11</v>
       </c>
@@ -9483,7 +9472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>12</v>
       </c>
@@ -9512,7 +9501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>13</v>
       </c>
@@ -9541,7 +9530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>14</v>
       </c>
@@ -9570,7 +9559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>15</v>
       </c>
@@ -9599,7 +9588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>16</v>
       </c>
@@ -9628,7 +9617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>17</v>
       </c>
@@ -9657,7 +9646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>18</v>
       </c>
@@ -9686,7 +9675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>19</v>
       </c>
@@ -9715,7 +9704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>20</v>
       </c>
@@ -9744,7 +9733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>21</v>
       </c>
@@ -9773,7 +9762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>22</v>
       </c>
@@ -9802,7 +9791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>23</v>
       </c>
@@ -9831,7 +9820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>24</v>
       </c>
@@ -9860,7 +9849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>25</v>
       </c>
@@ -9889,7 +9878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>26</v>
       </c>
@@ -9918,7 +9907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>27</v>
       </c>
@@ -9947,7 +9936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>28</v>
       </c>
@@ -9976,7 +9965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>29</v>
       </c>
@@ -10005,7 +9994,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>30</v>
       </c>
@@ -10034,7 +10023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>31</v>
       </c>
@@ -10063,7 +10052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>32</v>
       </c>
@@ -10092,7 +10081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>33</v>
       </c>
@@ -10121,7 +10110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>34</v>
       </c>
@@ -10150,7 +10139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>35</v>
       </c>
@@ -10179,7 +10168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>36</v>
       </c>
@@ -10208,7 +10197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>37</v>
       </c>
@@ -10237,7 +10226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>38</v>
       </c>
@@ -10266,7 +10255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>39</v>
       </c>
@@ -10295,7 +10284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>40</v>
       </c>
@@ -10324,7 +10313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>41</v>
       </c>
@@ -10353,7 +10342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>42</v>
       </c>
@@ -10382,7 +10371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>43</v>
       </c>
@@ -10411,7 +10400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>44</v>
       </c>
@@ -10440,7 +10429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>45</v>
       </c>
@@ -10469,7 +10458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>46</v>
       </c>
@@ -10498,7 +10487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>47</v>
       </c>
@@ -10527,7 +10516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>48</v>
       </c>
@@ -10556,7 +10545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>1</v>
       </c>
@@ -10585,7 +10574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>2</v>
       </c>
@@ -10614,7 +10603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>3</v>
       </c>
@@ -10643,7 +10632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>4</v>
       </c>
@@ -10672,7 +10661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>5</v>
       </c>
@@ -10701,7 +10690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>6</v>
       </c>
@@ -10730,7 +10719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>7</v>
       </c>
@@ -10759,7 +10748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>8</v>
       </c>
@@ -10788,7 +10777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>9</v>
       </c>
@@ -10817,7 +10806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>10</v>
       </c>
@@ -10846,7 +10835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>11</v>
       </c>
@@ -10875,7 +10864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>12</v>
       </c>
@@ -10904,7 +10893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>13</v>
       </c>
@@ -10933,7 +10922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>14</v>
       </c>
@@ -10962,7 +10951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>15</v>
       </c>
@@ -10991,7 +10980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>16</v>
       </c>
@@ -11020,7 +11009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>17</v>
       </c>
@@ -11049,7 +11038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>18</v>
       </c>
@@ -11078,7 +11067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>19</v>
       </c>
@@ -11107,7 +11096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>20</v>
       </c>
@@ -11136,7 +11125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>21</v>
       </c>
@@ -11165,7 +11154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>22</v>
       </c>
@@ -11194,7 +11183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>23</v>
       </c>
@@ -11223,7 +11212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>24</v>
       </c>
@@ -11252,7 +11241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>25</v>
       </c>
@@ -11281,7 +11270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>26</v>
       </c>
@@ -11310,7 +11299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>27</v>
       </c>
@@ -11339,7 +11328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>28</v>
       </c>
@@ -11368,7 +11357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>29</v>
       </c>
@@ -11397,7 +11386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>30</v>
       </c>
@@ -11426,7 +11415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>31</v>
       </c>
@@ -11455,7 +11444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>32</v>
       </c>
@@ -11484,7 +11473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>33</v>
       </c>
@@ -11513,7 +11502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>34</v>
       </c>
@@ -11542,7 +11531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>35</v>
       </c>
@@ -11571,7 +11560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>36</v>
       </c>
@@ -11600,7 +11589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>37</v>
       </c>
@@ -11629,7 +11618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11658,7 +11647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>39</v>
       </c>
@@ -11666,17 +11655,14 @@
         <v>17034.64</v>
       </c>
       <c r="C388">
-        <v>796.01</v>
+        <v>1096.01</v>
       </c>
       <c r="D388">
-        <v>41.16</v>
+        <v>141.16</v>
       </c>
       <c r="E388">
         <v>754.85</v>
       </c>
-      <c r="F388">
-        <v>16279.79</v>
-      </c>
       <c r="G388">
         <v>60</v>
       </c>
@@ -11687,7 +11673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>40</v>
       </c>
@@ -11716,7 +11702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>41</v>
       </c>
@@ -11745,7 +11731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>42</v>
       </c>
@@ -11774,7 +11760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>43</v>
       </c>
@@ -11803,7 +11789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>44</v>
       </c>
@@ -11832,7 +11818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>45</v>
       </c>
@@ -11861,7 +11847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>46</v>
       </c>
@@ -11890,7 +11876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>47</v>
       </c>
@@ -11919,7 +11905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>48</v>
       </c>
@@ -11948,7 +11934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>49</v>
       </c>
@@ -11977,7 +11963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>50</v>
       </c>
@@ -12006,7 +11992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>51</v>
       </c>
@@ -12035,7 +12021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>52</v>
       </c>
@@ -12064,7 +12050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>53</v>
       </c>
@@ -12093,7 +12079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>54</v>
       </c>
@@ -12122,7 +12108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>55</v>
       </c>
@@ -12151,7 +12137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>56</v>
       </c>
@@ -12180,7 +12166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>57</v>
       </c>
@@ -12209,7 +12195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>58</v>
       </c>
@@ -12238,7 +12224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>59</v>
       </c>
@@ -12267,7 +12253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>60</v>
       </c>
